--- a/xls/Demo.xlsx
+++ b/xls/Demo.xlsx
@@ -9,12 +9,28 @@
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
   <si>
     <t>ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -24,20 +40,28 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>S1</t>
+    <t>描述</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
+    <t>S1DESC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2DESC</t>
+  </si>
+  <si>
+    <t>S3DESC</t>
+  </si>
+  <si>
+    <t>S4DESC</t>
+  </si>
+  <si>
+    <t>S5DESC</t>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -620,11 +644,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,60 +989,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
